--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据库" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>Linux</t>
   </si>
@@ -39,6 +40,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">一切都是文件：
     </t>
     </r>
@@ -134,6 +141,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>服务器 / 客户模式</t>
     </r>
     <r>
@@ -149,6 +162,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>对等体模式</t>
     </r>
     <r>
@@ -164,6 +183,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>广播模式</t>
     </r>
     <r>
@@ -179,6 +204,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>组播模式</t>
     </r>
     <r>
@@ -192,18 +223,105 @@
 在组播模式下，服务器端和客户端都需要配置相关命令。服务器端周期性向组播目的地址 224.0.1.1 发送时钟同步报文。客户端根据到来的组播消息包对本地时钟进行同步。</t>
     </r>
   </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>▲关系型数据库软件     （有组织结构；按照一定的组织结构存储数据，并且数据之间可以相互关联操作）
+▲非关系型数据库                （按照键值对进行存储）</t>
+  </si>
+  <si>
+    <t>关系型数据库软件 ：
+Mysql      Oracle      db2      SQL SERVER</t>
+  </si>
+  <si>
+    <t>非关系型数据库软件：
+（Nosql）mongodbg         Redis          Memcached</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>特点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关系型数据库软件 
+跨平台（支持平台操作系统）
+可移植性强
+支持多重语言（Python/java/php）
+支持多种存储引擎。
+</t>
+  </si>
+  <si>
+    <t>应用环境</t>
+  </si>
+  <si>
+    <t>Linux作为操作系统，Apache 或Nginx作为 Web 服务器，MySQL 作为数据库，PHP/Perl/Python作为服务器端脚本解释器。由于这四个软件都是免费或开放源码软件（FLOSS)，因此使用这种方式不用花一分钱（除开人工成本）就可以建立起一个稳定、免费的网站系统，被业界称为“LAMP“或“LNMP”组合 [3]  。</t>
+  </si>
+  <si>
+    <t>应用架构</t>
+  </si>
+  <si>
+    <t>单点（Single），适合小规模应用
+集群（Cluster），适合大规模应用</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>数值类型</t>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>tinyint   微小整型
+smallint  小整型
+mediumint 中整型
+int       大整型
+bigint    极大整型</t>
+  </si>
+  <si>
+    <t>浮点型</t>
+  </si>
+  <si>
+    <t>float     单精度
+double    双精度</t>
+  </si>
+  <si>
+    <t>字符类型</t>
+  </si>
+  <si>
+    <t>char   （255）      固定长度字符类型
+varchar （62232）   变长字符类型
+大文本类型
+blob
+text</t>
+  </si>
+  <si>
+    <t>日期时间类型</t>
+  </si>
+  <si>
+    <t>枚局类型</t>
+  </si>
+  <si>
+    <t>（插入数据是记录的是时能在列举类型范围内选择）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,7 +338,7 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF00B0F0"/>
       <name val="仿宋"/>
       <charset val="134"/>
     </font>
@@ -237,6 +355,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF00B0F0"/>
       <name val="仿宋"/>
@@ -257,16 +381,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,6 +410,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -287,9 +426,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,13 +456,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -324,6 +464,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -332,7 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,24 +503,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,22 +516,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -402,31 +526,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,151 +670,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +733,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,30 +777,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -660,6 +784,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,180 +817,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -865,10 +989,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1188,176 +1333,301 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="12.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="114.875" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="33" spans="3:3">
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="49.5" spans="3:3">
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="33" spans="3:3">
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="49.5" spans="3:3">
+      <c r="C8" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" ht="49.5" spans="3:3">
+      <c r="C25" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="49.5" spans="3:3">
+      <c r="C27" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="49.5" spans="3:3">
+      <c r="C28" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" ht="49.5" spans="3:3">
+      <c r="C29" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="49.5" spans="3:3">
+      <c r="C30" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="114.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="111.75" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="49.5" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="33" spans="3:3">
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="49.5" spans="3:3">
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="33" spans="3:3">
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="49.5" spans="3:3">
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="33" spans="3:3">
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="33" spans="1:3">
+      <c r="A4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" ht="99" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="66" spans="2:3">
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" ht="33" spans="2:3">
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" ht="82.5" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="33" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" ht="82.5" spans="2:3">
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" ht="49.5" spans="3:3">
-      <c r="C25" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" ht="49.5" spans="3:3">
-      <c r="C28" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" ht="49.5" spans="3:3">
-      <c r="C29" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" ht="49.5" spans="3:3">
-      <c r="C30" s="8" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>Linux</t>
   </si>
@@ -310,6 +310,46 @@
   <si>
     <t>（插入数据是记录的是时能在列举类型范围内选择）</t>
   </si>
+  <si>
+    <t>字段的约束条件</t>
+  </si>
+  <si>
+    <t>作用：限制图和给字段赋值</t>
+  </si>
+  <si>
+    <t>键值：索引
+默认值：当赋值时，不给字段赋值，使用默认是给字段赋值
+空值：字段是否可以赋空值
+额外设置：字段是否自动增长</t>
+  </si>
+  <si>
+    <t>键值</t>
+  </si>
+  <si>
+    <t>普通索引     唯一索引     全文索引     主键     外键</t>
+  </si>
+  <si>
+    <t>设置在表中的字段上，用来约束如何给字段赋值同时给字段做引索</t>
+  </si>
+  <si>
+    <t>引索：树状的目录结构，类似于书的目录
+有点：加快查询表记录的速度
+缺点：减慢编辑表的速度，且占用物理磁盘的存储空间</t>
+  </si>
+  <si>
+    <t>普通索引</t>
+  </si>
+  <si>
+    <t>使用规则：
+一个表中可以有多个index字段，字段的值允许有重复，且可以赋null值，经常把作查询条件的字段设置为index字段，index字段的Key标志时MUL</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>使用规则：
+一个表中只能有一个primary Key字段；对应的字段不允许重复，且不允许赋NULL；如果有多个字段都作为主键，必须一起创建，复合主键多条主键不可以同时重复；主键的Key标志PRI；主键通常与AUTO_INCREMENT 的连用；让字段的值自动增长；i++运算；i=前一个字段值；经常把表中能狗唯一表示的字段设置为主键字段，记录标号字段</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +361,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,6 +395,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="仿宋"/>
@@ -374,7 +420,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,7 +434,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,8 +480,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -411,32 +518,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,46 +540,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,22 +562,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -526,6 +572,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -538,19 +692,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,151 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,11 +766,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,23 +802,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,17 +838,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -803,17 +853,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,152 +868,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,89 +1032,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1077,7 +1122,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="2E3436"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1324,12 +1369,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -1337,171 +1381,171 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="114.875" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="114.875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="33" spans="3:3">
-      <c r="C4" s="13" t="s">
+    <row r="4" ht="37.5" spans="3:3">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="49.5" spans="3:3">
-      <c r="C5" s="13" t="s">
+    <row r="5" ht="56.25" spans="3:3">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="3:3">
-      <c r="C7" s="13" t="s">
+    <row r="7" ht="37.5" spans="3:3">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="49.5" spans="3:3">
-      <c r="C8" s="14" t="s">
+    <row r="8" ht="56.25" spans="3:3">
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" ht="49.5" spans="3:3">
-      <c r="C25" s="13" t="s">
+    <row r="25" ht="56.25" spans="3:3">
+      <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="15" t="s">
+    <row r="27" ht="56.25" spans="3:3">
+      <c r="C27" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" ht="49.5" spans="3:3">
-      <c r="C28" s="15" t="s">
+    <row r="28" ht="75" spans="3:3">
+      <c r="C28" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" ht="49.5" spans="3:3">
-      <c r="C29" s="15" t="s">
+    <row r="29" ht="56.25" spans="3:3">
+      <c r="C29" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" ht="49.5" spans="3:3">
-      <c r="C30" s="15" t="s">
+    <row r="30" ht="56.25" spans="3:3">
+      <c r="C30" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1512,15 +1556,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
@@ -1533,7 +1577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" ht="49.5" spans="2:3">
+    <row r="2" ht="56.25" spans="2:3">
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1541,79 +1585,75 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="3:3">
-      <c r="C3" s="6" t="s">
+    <row r="3" ht="37.5" spans="3:3">
+      <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" ht="33" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="C4" s="6" t="s">
+    <row r="4" ht="37.5" spans="3:3">
+      <c r="C4" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" ht="99" spans="1:3">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="112.5" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="66" spans="2:3">
+    <row r="7" ht="75" spans="2:3">
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="33" spans="2:3">
+    <row r="8" ht="37.5" spans="2:3">
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="20.25" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" ht="82.5" spans="1:3">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" ht="93.75" spans="1:3">
       <c r="A10" s="2"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="1:3">
+    <row r="11" ht="37.5" spans="1:3">
       <c r="A11" s="2"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" ht="82.5" spans="2:3">
+    <row r="12" ht="93.75" spans="2:3">
       <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1628,6 +1668,66 @@
       </c>
       <c r="C14" s="3" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" ht="75" spans="2:3">
+      <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" ht="56.25" spans="3:3">
+      <c r="C21" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" ht="56.25" spans="3:3">
+      <c r="C23" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" ht="93.75" spans="3:3">
+      <c r="C25" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
